--- a/测试问题明细.xlsx
+++ b/测试问题明细.xlsx
@@ -135,6 +135,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
       <t>导入数据默认学生状态是</t>
     </r>
     <r>
@@ -150,6 +155,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>，学校存在未班情况（见前期发的迁入数据），末班是没分班，没报到，属于未注册状态，不能按在校处理。同时新生状态也是预注册</t>
@@ -160,6 +166,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>临时班添加3个学生，临时1设置自定义缴费标准，临时2，3采用班级缴费标准，三个都缴费完毕后欠费导出里面显示</t>
     </r>
     <r>
@@ -452,10 +464,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -479,6 +491,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -495,7 +515,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -503,7 +523,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -517,6 +552,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -525,23 +583,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -556,10 +599,17 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -571,17 +621,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -595,35 +636,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -644,13 +656,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -662,7 +806,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,151 +830,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -857,16 +869,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -886,13 +898,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -906,26 +931,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -937,10 +949,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -949,137 +961,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1096,9 +1108,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1501,7 +1510,7 @@
       <c r="K2" s="1"/>
     </row>
     <row r="3" ht="27" customHeight="1" spans="1:11">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1"/>
@@ -1514,376 +1523,376 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" s="6" customFormat="1" ht="28.8" spans="1:10">
-      <c r="A4" s="6" t="s">
+    <row r="4" s="3" customFormat="1" ht="28.8" spans="1:10">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="11">
         <v>43161</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="12">
         <v>43164</v>
       </c>
     </row>
     <row r="5" ht="72" customHeight="1" spans="2:11">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
     </row>
     <row r="6" ht="144" customHeight="1" spans="1:11">
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="11"/>
+      <c r="K6" s="10"/>
     </row>
     <row r="7" ht="49" customHeight="1" spans="1:11">
       <c r="A7">
         <v>2</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="11"/>
+      <c r="K7" s="10"/>
     </row>
     <row r="8" ht="45" customHeight="1" spans="1:11">
       <c r="A8">
         <v>3</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="15"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
     </row>
     <row r="9" ht="81" customHeight="1" spans="1:11">
       <c r="A9">
         <v>4</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
     </row>
     <row r="10" ht="57.6" spans="1:11">
       <c r="A10">
         <v>5</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
     </row>
     <row r="11" ht="58" customHeight="1" spans="1:11">
       <c r="A11">
         <v>6</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
     </row>
     <row r="12" ht="63" customHeight="1" spans="1:11">
       <c r="A12">
         <v>7</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="I12" s="14"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
     </row>
     <row r="13" ht="60" customHeight="1" spans="2:11">
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2268,7 +2277,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>

--- a/测试问题明细.xlsx
+++ b/测试问题明细.xlsx
@@ -138,6 +138,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>导入数据默认学生状态是</t>
@@ -399,7 +400,7 @@
     <t>收费项目是否按目前固定？还是需要动态展示？</t>
   </si>
   <si>
-    <t>先按目前已确定的收费项目做</t>
+    <t>先按目前已确定的收费项目做（学费、住宿费、代收代支、生活费、代购物品），抵扣项目有：奖学金、助学金、减免</t>
   </si>
   <si>
     <t>英才刘老师</t>
@@ -411,7 +412,7 @@
     <t>需要导入奖学金、助学金、减免等项目内容的数据格式</t>
   </si>
   <si>
-    <t>导入收费项目明细记录不导入总账</t>
+    <t>导入收费项目明细记录，具体格式</t>
   </si>
   <si>
     <t>蒋仕喜参与共同商讨</t>
@@ -491,14 +492,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -506,9 +499,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -523,7 +522,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -536,24 +535,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -567,14 +581,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -583,16 +589,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -607,7 +606,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -615,21 +614,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -650,19 +651,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,55 +807,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,102 +832,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,17 +845,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -883,17 +893,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -916,28 +937,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -949,10 +950,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -961,133 +962,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1910,7 +1911,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2277,7 +2278,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2324,7 +2325,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" ht="31" customHeight="1" spans="1:6">
+    <row r="3" ht="87" customHeight="1" spans="1:6">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2344,7 +2345,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" ht="43" customHeight="1" spans="1:9">
+    <row r="4" ht="66" customHeight="1" spans="1:9">
       <c r="A4">
         <v>2</v>
       </c>
